--- a/report/summary_USDJPY_M15_2020-2023_0.xlsx
+++ b/report/summary_USDJPY_M15_2020-2023_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +532,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -551,54 +551,54 @@
         <v>2023</v>
       </c>
       <c r="F2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>1.2</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K2" t="n">
-        <v>-189.4659999999984</v>
+        <v>-88.19500000000056</v>
       </c>
       <c r="L2" t="n">
-        <v>-96.43199999999921</v>
+        <v>-44.15600000000028</v>
       </c>
       <c r="M2" t="n">
-        <v>9355</v>
+        <v>2630</v>
       </c>
       <c r="N2" t="n">
-        <v>-93.03399999999915</v>
+        <v>-44.03900000000029</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.644999999999982</v>
+        <v>-3.634000000000015</v>
       </c>
       <c r="P2" t="n">
-        <v>4.419000000000011</v>
+        <v>4.302999999999997</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.009944842330304559</v>
+        <v>-0.0167448669201522</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2429194295011085</v>
+        <v>0.2460420021993706</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.04200000000000159</v>
+        <v>-0.01800000000000068</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3673971138428648</v>
+        <v>0.4273764258555133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -617,54 +617,54 @@
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.3</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.4</v>
-      </c>
       <c r="K3" t="n">
-        <v>-201.2429999999991</v>
+        <v>-167.7269999999995</v>
       </c>
       <c r="L3" t="n">
-        <v>-104.3989999999993</v>
+        <v>-85.46199999999976</v>
       </c>
       <c r="M3" t="n">
-        <v>5986</v>
+        <v>1880</v>
       </c>
       <c r="N3" t="n">
-        <v>-96.8439999999998</v>
+        <v>-82.26499999999976</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.709000000000003</v>
+        <v>-2.644999999999982</v>
       </c>
       <c r="P3" t="n">
-        <v>4.417999999999978</v>
+        <v>3.412000000000006</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01617841630471096</v>
+        <v>-0.04375797872340412</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5304443965615365</v>
+        <v>0.3599604225292049</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.1539999999999964</v>
+        <v>-0.1610000000000014</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2940193785499499</v>
+        <v>0.2393617021276596</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -683,13 +683,13 @@
         <v>2023</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H4" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -698,34 +698,562 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>-189.4659999999984</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-96.43199999999921</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9355</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-93.03399999999915</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-2.644999999999982</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.419000000000011</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.009944842330304559</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2429194295011085</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.04200000000000159</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.3673971138428648</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F5" t="n">
+        <v>70</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-201.2429999999991</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-104.3989999999993</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5986</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-96.8439999999998</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-3.709000000000003</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.417999999999978</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.01617841630471096</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5304443965615365</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.1539999999999964</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.2940193785499499</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-202.3930000000019</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-102.1700000000008</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4077</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-100.2230000000011</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-3.949000000000012</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.271999999999991</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.02458253617856293</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5287673735806692</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.2050000000000125</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2869757174392936</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>-209.0609999999998</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L7" t="n">
         <v>-104.6849999999999</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M7" t="n">
         <v>2450</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N7" t="n">
         <v>-104.3759999999999</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O7" t="n">
         <v>-3.224000000000018</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P7" t="n">
         <v>4.609000000000009</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q7" t="n">
         <v>-0.0426024489795918</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R7" t="n">
         <v>0.3609768813815668</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S7" t="n">
         <v>-0.1539999999999964</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T7" t="n">
         <v>0.2644897959183674</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F8" t="n">
+        <v>60</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-239.2239999999993</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-120.0739999999997</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2939</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-119.1499999999996</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-2.644999999999982</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.396000000000015</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.04054100034025165</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.2185073320767586</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.06799999999999784</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.1623001020755359</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F9" t="n">
+        <v>80</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-249.826</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-124.913</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3270</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-124.913</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-3.108000000000004</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.033999999999992</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.03819969418960244</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.3311311235424719</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.1360000000000028</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.2755351681957187</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-465.2430000000015</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-238.9960000000004</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10512</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-226.2470000000012</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-3.949000000000012</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.507000000000005</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.02152273592085247</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.3921033874556027</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.1129999999999995</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.2657914764079148</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F11" t="n">
+        <v>90</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-536.8560000000045</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-270.7650000000021</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10380</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-266.0910000000023</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-3.709000000000003</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.507000000000005</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.02563497109826612</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.3704390432572074</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.1529999999999916</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.2423892100192678</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F12" t="n">
+        <v>80</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-762.0400000000033</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-381.4120000000016</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11286</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-380.6280000000016</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-2.644999999999982</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.617000000000019</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.03372567783094113</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.1679700842484298</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.06300000000000239</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.2039695197589934</v>
       </c>
     </row>
   </sheetData>
